--- a/flashcards/Memcode - VO Römisches Schuldrecht (JKU, Austria).xlsx
+++ b/flashcards/Memcode - VO Römisches Schuldrecht (JKU, Austria).xlsx
@@ -11,12 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>Question</t>
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kann ein Schuldner vor Termin zu leisten anbieten?&lt;/p&gt;&lt;p&gt;Was ist die Folge, wenn der Gläubiger ablehnt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Der &lt;strong&gt;Termin &lt;/strong&gt;bei einer Schuld &lt;strong&gt;dient &lt;/strong&gt;nur dem &lt;strong&gt;Schuldner&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Der &lt;strong&gt;S kann&lt;/strong&gt; also &lt;strong&gt;vor&lt;/strong&gt; &lt;strong&gt;Termin &lt;/strong&gt;leisten&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Wenn&lt;em&gt; G ablehnt&lt;/em&gt;, ist er in &lt;em&gt;Gläubigerverzug&lt;/em&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie haftet der Mieter?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Dolus&lt;/strong&gt;, &lt;strong&gt;Culpa&lt;/strong&gt;, &lt;em&gt;Custodia&lt;/em&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Kann die condictio indebiti geltend gemacht werden, wenn eine Naturalobligation gezahlt wurde?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;em&gt;Nein&lt;/em&gt;, denn auch eine &lt;strong&gt;Naturalobligation &lt;/strong&gt;ist eine &lt;strong&gt;Schuld&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;sie ist &lt;strong&gt;zahlbar&lt;/strong&gt;, nur &lt;strong&gt;nicht&lt;/strong&gt; &lt;strong&gt;klagbar&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Was ist ein pactum?&lt;/p&gt;&lt;p&gt;Ist es klagbar?&lt;/p&gt;</t>
@@ -1324,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B157"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -2562,6 +2580,30 @@
         <v>307</v>
       </c>
     </row>
+    <row r="155" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
